--- a/甲乙班(Exp)後測成績2.xlsx
+++ b/甲乙班(Exp)後測成績2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chang You Wei\Desktop\實驗資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E778FA0-FE1A-4838-AECD-B3B61895F6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B597B96-9AEB-41E0-9ED4-94287FD98A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5940" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>劉廣隃</t>
   </si>
@@ -457,11 +457,26 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>commit &amp; push</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict solve</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -564,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,6 +601,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -867,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -882,9 +899,12 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -902,8 +922,17 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -916,13 +945,31 @@
       <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11">
+        <f>(D2*2+G2)/3</f>
+        <v>100</v>
+      </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.5">
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -935,13 +982,31 @@
       <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H51" si="0">(D3*2+G3)/3</f>
+        <v>25</v>
+      </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75">
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -952,15 +1017,33 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75">
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -973,13 +1056,31 @@
       <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75">
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -992,13 +1093,31 @@
       <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75">
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1009,17 +1128,32 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1032,13 +1166,31 @@
       <c r="D8" s="3">
         <v>75</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1051,13 +1203,31 @@
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1070,13 +1240,31 @@
       <c r="D10" s="3">
         <v>50</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1089,13 +1277,31 @@
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75">
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1108,13 +1314,31 @@
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75">
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1125,15 +1349,33 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1144,15 +1386,33 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75">
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1165,13 +1425,31 @@
       <c r="D15" s="3">
         <v>75</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1184,13 +1462,31 @@
       <c r="D16" s="3">
         <v>100</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1203,13 +1499,31 @@
       <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1222,13 +1536,31 @@
       <c r="D18" s="3">
         <v>50</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1239,15 +1571,33 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1260,13 +1610,31 @@
       <c r="D20" s="3">
         <v>50</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75">
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1277,15 +1645,33 @@
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1296,15 +1682,33 @@
         <v>21</v>
       </c>
       <c r="D22" s="3">
-        <v>25</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1315,15 +1719,33 @@
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1336,13 +1758,31 @@
       <c r="D24" s="3">
         <v>50</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75">
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1355,13 +1795,31 @@
       <c r="D25" s="3">
         <v>100</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3">
+        <v>100</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75">
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1372,15 +1830,33 @@
         <v>25</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1393,13 +1869,31 @@
       <c r="D27" s="3">
         <v>50</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75">
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1412,13 +1906,31 @@
       <c r="D28" s="3">
         <v>100</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75">
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1431,13 +1943,31 @@
       <c r="D29" s="3">
         <v>50</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="E29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="3">
+        <v>67</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="0"/>
+        <v>55.666666666666664</v>
+      </c>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75">
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1450,13 +1980,31 @@
       <c r="D30" s="3">
         <v>100</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75">
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1469,13 +2017,31 @@
       <c r="D31" s="3">
         <v>25</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3">
+        <v>50</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75">
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1488,13 +2054,31 @@
       <c r="D32" s="3">
         <v>25</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3">
+        <v>50</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75">
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1505,15 +2089,33 @@
         <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>75</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1524,15 +2126,33 @@
         <v>33</v>
       </c>
       <c r="D34" s="3">
-        <v>25</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1545,13 +2165,31 @@
       <c r="D35" s="3">
         <v>75</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75">
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1564,13 +2202,31 @@
       <c r="D36" s="3">
         <v>50</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="3">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75">
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1583,13 +2239,31 @@
       <c r="D37" s="3">
         <v>100</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3">
+        <v>100</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75">
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1600,15 +2274,33 @@
         <v>37</v>
       </c>
       <c r="D38" s="3">
-        <v>25</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="3">
+        <v>100</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1621,13 +2313,31 @@
       <c r="D39" s="3">
         <v>25</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="E39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="3">
+        <v>50</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75">
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1638,15 +2348,33 @@
         <v>39</v>
       </c>
       <c r="D40" s="3">
-        <v>25</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1659,13 +2387,31 @@
       <c r="D41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="E41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75">
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1678,13 +2424,31 @@
       <c r="D42" s="3">
         <v>50</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75">
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1697,13 +2461,31 @@
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="E43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75">
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="18.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1716,13 +2498,31 @@
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1733,15 +2533,33 @@
         <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1754,13 +2572,31 @@
       <c r="D46" s="3">
         <v>50</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75">
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1771,15 +2607,33 @@
         <v>46</v>
       </c>
       <c r="D47" s="3">
-        <v>25</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1792,13 +2646,31 @@
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75">
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1811,13 +2683,31 @@
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
+      <c r="E49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75">
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1828,15 +2718,33 @@
         <v>50</v>
       </c>
       <c r="D50" s="3">
-        <v>25</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1847,15 +2755,33 @@
         <v>51</v>
       </c>
       <c r="D51" s="3">
-        <v>25</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1866,15 +2792,33 @@
         <v>52</v>
       </c>
       <c r="D52" s="3">
-        <v>25</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <f>(D52*2+G52)/3</f>
+        <v>0</v>
+      </c>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.75">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1885,15 +2829,27 @@
         <v>19</v>
       </c>
       <c r="D53" s="3">
-        <v>25</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <f>AVERAGE(H2:H52)</f>
+        <v>58.771241830065364</v>
+      </c>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75">
+      <c r="J53">
+        <f>AVERAGE(J2:J52)</f>
+        <v>72.549019607843135</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:L53" si="1">AVERAGE(K2:K52)</f>
+        <v>63.725490196078432</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>43.137254901960787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1904,15 +2860,12 @@
         <v>20</v>
       </c>
       <c r="D54" s="3">
-        <v>25</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+        <v>0</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75">
+    <row r="55" spans="1:12" ht="18.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1925,57 +2878,48 @@
       <c r="D55" s="3">
         <v>50</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="19.5">
+    <row r="56" spans="1:12" ht="19.5">
       <c r="A56" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="9">
         <f>AVERAGE(D2:D55)</f>
-        <v>57.407407407407405</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+        <v>52.777777777777779</v>
+      </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75">
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+    <row r="57" spans="1:12">
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75">
+    <row r="58" spans="1:12" ht="18.75">
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:12">
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:12">
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:12">
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" ht="18.75">
+    <row r="62" spans="1:12" ht="18.75">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75">
+    <row r="63" spans="1:12" ht="18.75">
       <c r="H63" s="8"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" ht="18.75">
+    <row r="64" spans="1:12" ht="18.75">
       <c r="H64" s="8"/>
       <c r="I64" s="4"/>
     </row>
@@ -1998,6 +2942,9 @@
       <c r="B85" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
+    <sortCondition ref="A2:A55"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/甲乙班(Exp)後測成績2.xlsx
+++ b/甲乙班(Exp)後測成績2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B597B96-9AEB-41E0-9ED4-94287FD98A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54163002-28BB-40C3-857B-F15ECBBC8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5940" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>劉廣隃</t>
   </si>
@@ -469,13 +469,26 @@
     <t>conflict solve</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Control Group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment Group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit and push</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0\%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -579,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,12 +610,18 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -619,6 +638,1171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Post</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> Test Passed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experiment Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$J$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>conflict solve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>branch</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>commit and push</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$55:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>0\%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.137254901960787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.725490196078432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.549019607843135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22E2-4C8A-B605-1A42AD612448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$I$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-22E2-4C8A-B605-1A42AD612448}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-22E2-4C8A-B605-1A42AD612448}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-22E2-4C8A-B605-1A42AD612448}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$J$54:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>conflict solve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>branch</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>commit and push</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$56:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>0\%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22E2-4C8A-B605-1A42AD612448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="708581951"/>
+        <c:axId val="708580703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708581951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708580703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708580703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0\%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708581951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7D01DB-230B-4B71-97F5-4412C906A059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L52"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -954,7 +2138,7 @@
       <c r="G2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>(D2*2+G2)/3</f>
         <v>100</v>
       </c>
@@ -991,8 +2175,8 @@
       <c r="G3" s="3">
         <v>25</v>
       </c>
-      <c r="H3" s="11">
-        <f t="shared" ref="H3:H51" si="0">(D3*2+G3)/3</f>
+      <c r="H3" s="16">
+        <f>(D3*2+G3)/3</f>
         <v>25</v>
       </c>
       <c r="I3" s="4"/>
@@ -1028,8 +2212,8 @@
       <c r="G4" s="3">
         <v>50</v>
       </c>
-      <c r="H4" s="11">
-        <f t="shared" si="0"/>
+      <c r="H4" s="10">
+        <f>(D4*2+G4)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I4" s="4"/>
@@ -1065,8 +2249,8 @@
       <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
+      <c r="H5" s="10">
+        <f>(D5*2+G5)/3</f>
         <v>100</v>
       </c>
       <c r="I5" s="4"/>
@@ -1102,8 +2286,8 @@
       <c r="G6" s="3">
         <v>100</v>
       </c>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
+      <c r="H6" s="10">
+        <f>(D6*2+G6)/3</f>
         <v>100</v>
       </c>
       <c r="I6" s="4"/>
@@ -1139,8 +2323,8 @@
       <c r="G7" s="3">
         <v>100</v>
       </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
+      <c r="H7" s="10">
+        <f>(D7*2+G7)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="J7">
@@ -1175,8 +2359,8 @@
       <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
+      <c r="H8" s="10">
+        <f>(D8*2+G8)/3</f>
         <v>83.333333333333329</v>
       </c>
       <c r="I8" s="5"/>
@@ -1212,8 +2396,8 @@
       <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
+      <c r="H9" s="10">
+        <f>(D9*2+G9)/3</f>
         <v>100</v>
       </c>
       <c r="I9" s="4"/>
@@ -1249,8 +2433,8 @@
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
+      <c r="H10" s="10">
+        <f>(D10*2+G10)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I10" s="4"/>
@@ -1286,8 +2470,8 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
+      <c r="H11" s="10">
+        <f>(D11*2+G11)/3</f>
         <v>100</v>
       </c>
       <c r="I11" s="5"/>
@@ -1323,8 +2507,8 @@
       <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
+      <c r="H12" s="10">
+        <f>(D12*2+G12)/3</f>
         <v>100</v>
       </c>
       <c r="I12" s="4"/>
@@ -1360,8 +2544,8 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
+      <c r="H13" s="10">
+        <f>(D13*2+G13)/3</f>
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
@@ -1397,8 +2581,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
+      <c r="H14" s="10">
+        <f>(D14*2+G14)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I14" s="4"/>
@@ -1434,8 +2618,8 @@
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
+      <c r="H15" s="10">
+        <f>(D15*2+G15)/3</f>
         <v>83.333333333333329</v>
       </c>
       <c r="I15" s="4"/>
@@ -1471,8 +2655,8 @@
       <c r="G16" s="3">
         <v>100</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
+      <c r="H16" s="10">
+        <f>(D16*2+G16)/3</f>
         <v>100</v>
       </c>
       <c r="I16" s="4"/>
@@ -1508,8 +2692,8 @@
       <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
+      <c r="H17" s="10">
+        <f>(D17*2+G17)/3</f>
         <v>100</v>
       </c>
       <c r="I17" s="4"/>
@@ -1545,8 +2729,8 @@
       <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
+      <c r="H18" s="10">
+        <f>(D18*2+G18)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I18" s="4"/>
@@ -1582,8 +2766,8 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
+      <c r="H19" s="10">
+        <f>(D19*2+G19)/3</f>
         <v>0</v>
       </c>
       <c r="I19" s="5"/>
@@ -1619,8 +2803,8 @@
       <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="11">
-        <f t="shared" si="0"/>
+      <c r="H20" s="10">
+        <f>(D20*2+G20)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I20" s="4"/>
@@ -1656,8 +2840,8 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" si="0"/>
+      <c r="H21" s="10">
+        <f>(D21*2+G21)/3</f>
         <v>0</v>
       </c>
       <c r="I21" s="4"/>
@@ -1693,8 +2877,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="11">
-        <f t="shared" si="0"/>
+      <c r="H22" s="10">
+        <f>(D22*2+G22)/3</f>
         <v>0</v>
       </c>
       <c r="I22" s="4"/>
@@ -1730,8 +2914,8 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
-        <f t="shared" si="0"/>
+      <c r="H23" s="10">
+        <f>(D23*2+G23)/3</f>
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
@@ -1767,8 +2951,8 @@
       <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="11">
-        <f t="shared" si="0"/>
+      <c r="H24" s="10">
+        <f>(D24*2+G24)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I24" s="4"/>
@@ -1804,8 +2988,8 @@
       <c r="G25" s="3">
         <v>100</v>
       </c>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
+      <c r="H25" s="10">
+        <f>(D25*2+G25)/3</f>
         <v>100</v>
       </c>
       <c r="I25" s="4"/>
@@ -1841,8 +3025,8 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="11">
-        <f t="shared" si="0"/>
+      <c r="H26" s="10">
+        <f>(D26*2+G26)/3</f>
         <v>0</v>
       </c>
       <c r="I26" s="4"/>
@@ -1878,8 +3062,8 @@
       <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="11">
-        <f t="shared" si="0"/>
+      <c r="H27" s="10">
+        <f>(D27*2+G27)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I27" s="5"/>
@@ -1915,8 +3099,8 @@
       <c r="G28" s="3">
         <v>100</v>
       </c>
-      <c r="H28" s="11">
-        <f t="shared" si="0"/>
+      <c r="H28" s="10">
+        <f>(D28*2+G28)/3</f>
         <v>100</v>
       </c>
       <c r="I28" s="4"/>
@@ -1952,8 +3136,8 @@
       <c r="G29" s="3">
         <v>67</v>
       </c>
-      <c r="H29" s="11">
-        <f t="shared" si="0"/>
+      <c r="H29" s="10">
+        <f>(D29*2+G29)/3</f>
         <v>55.666666666666664</v>
       </c>
       <c r="I29" s="4"/>
@@ -1989,8 +3173,8 @@
       <c r="G30" s="3">
         <v>100</v>
       </c>
-      <c r="H30" s="11">
-        <f t="shared" si="0"/>
+      <c r="H30" s="10">
+        <f>(D30*2+G30)/3</f>
         <v>100</v>
       </c>
       <c r="I30" s="5"/>
@@ -2026,8 +3210,8 @@
       <c r="G31" s="3">
         <v>50</v>
       </c>
-      <c r="H31" s="11">
-        <f t="shared" si="0"/>
+      <c r="H31" s="10">
+        <f>(D31*2+G31)/3</f>
         <v>33.333333333333336</v>
       </c>
       <c r="I31" s="4"/>
@@ -2063,8 +3247,8 @@
       <c r="G32" s="3">
         <v>50</v>
       </c>
-      <c r="H32" s="11">
-        <f t="shared" si="0"/>
+      <c r="H32" s="10">
+        <f>(D32*2+G32)/3</f>
         <v>33.333333333333336</v>
       </c>
       <c r="I32" s="4"/>
@@ -2100,8 +3284,8 @@
       <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="11">
-        <f t="shared" si="0"/>
+      <c r="H33" s="10">
+        <f>(D33*2+G33)/3</f>
         <v>100</v>
       </c>
       <c r="I33" s="5"/>
@@ -2137,8 +3321,8 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <f t="shared" si="0"/>
+      <c r="H34" s="10">
+        <f>(D34*2+G34)/3</f>
         <v>0</v>
       </c>
       <c r="I34" s="4"/>
@@ -2174,8 +3358,8 @@
       <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="11">
-        <f t="shared" si="0"/>
+      <c r="H35" s="10">
+        <f>(D35*2+G35)/3</f>
         <v>83.333333333333329</v>
       </c>
       <c r="I35" s="4"/>
@@ -2211,8 +3395,8 @@
       <c r="G36" s="3">
         <v>100</v>
       </c>
-      <c r="H36" s="11">
-        <f t="shared" si="0"/>
+      <c r="H36" s="10">
+        <f>(D36*2+G36)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I36" s="4"/>
@@ -2248,8 +3432,8 @@
       <c r="G37" s="3">
         <v>100</v>
       </c>
-      <c r="H37" s="11">
-        <f t="shared" si="0"/>
+      <c r="H37" s="10">
+        <f>(D37*2+G37)/3</f>
         <v>100</v>
       </c>
       <c r="I37" s="4"/>
@@ -2285,8 +3469,8 @@
       <c r="G38" s="3">
         <v>100</v>
       </c>
-      <c r="H38" s="11">
-        <f t="shared" si="0"/>
+      <c r="H38" s="10">
+        <f>(D38*2+G38)/3</f>
         <v>33.333333333333336</v>
       </c>
       <c r="I38" s="4"/>
@@ -2322,8 +3506,8 @@
       <c r="G39" s="3">
         <v>50</v>
       </c>
-      <c r="H39" s="11">
-        <f t="shared" si="0"/>
+      <c r="H39" s="10">
+        <f>(D39*2+G39)/3</f>
         <v>33.333333333333336</v>
       </c>
       <c r="I39" s="4"/>
@@ -2359,8 +3543,8 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="11">
-        <f t="shared" si="0"/>
+      <c r="H40" s="10">
+        <f>(D40*2+G40)/3</f>
         <v>0</v>
       </c>
       <c r="I40" s="4"/>
@@ -2396,8 +3580,8 @@
       <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="11">
-        <f t="shared" si="0"/>
+      <c r="H41" s="10">
+        <f>(D41*2+G41)/3</f>
         <v>100</v>
       </c>
       <c r="I41" s="4"/>
@@ -2433,8 +3617,8 @@
       <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="11">
-        <f t="shared" si="0"/>
+      <c r="H42" s="10">
+        <f>(D42*2+G42)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I42" s="4"/>
@@ -2470,8 +3654,8 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="11">
-        <f t="shared" si="0"/>
+      <c r="H43" s="10">
+        <f>(D43*2+G43)/3</f>
         <v>100</v>
       </c>
       <c r="I43" s="4"/>
@@ -2507,8 +3691,8 @@
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="11">
-        <f t="shared" si="0"/>
+      <c r="H44" s="10">
+        <f>(D44*2+G44)/3</f>
         <v>100</v>
       </c>
       <c r="I44" s="5"/>
@@ -2544,8 +3728,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="11">
-        <f t="shared" si="0"/>
+      <c r="H45" s="10">
+        <f>(D45*2+G45)/3</f>
         <v>0</v>
       </c>
       <c r="I45" s="4"/>
@@ -2581,8 +3765,8 @@
       <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="11">
-        <f t="shared" si="0"/>
+      <c r="H46" s="10">
+        <f>(D46*2+G46)/3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I46" s="5"/>
@@ -2618,8 +3802,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <f t="shared" si="0"/>
+      <c r="H47" s="10">
+        <f>(D47*2+G47)/3</f>
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
@@ -2655,8 +3839,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="11">
-        <f t="shared" si="0"/>
+      <c r="H48" s="10">
+        <f>(D48*2+G48)/3</f>
         <v>100</v>
       </c>
       <c r="I48" s="4"/>
@@ -2670,7 +3854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75">
+    <row r="49" spans="1:13" ht="18.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2692,8 +3876,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="11">
-        <f t="shared" si="0"/>
+      <c r="H49" s="10">
+        <f>(D49*2+G49)/3</f>
         <v>100</v>
       </c>
       <c r="I49" s="4"/>
@@ -2707,7 +3891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75">
+    <row r="50" spans="1:13" ht="18.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2729,8 +3913,8 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="11">
-        <f t="shared" si="0"/>
+      <c r="H50" s="10">
+        <f>(D50*2+G50)/3</f>
         <v>0</v>
       </c>
       <c r="I50" s="4"/>
@@ -2744,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.75">
+    <row r="51" spans="1:13" ht="18.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2766,8 +3950,8 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="11">
-        <f t="shared" si="0"/>
+      <c r="H51" s="10">
+        <f>(D51*2+G51)/3</f>
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
@@ -2781,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.75">
+    <row r="52" spans="1:13" ht="18.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2803,7 +3987,7 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <f>(D52*2+G52)/3</f>
         <v>0</v>
       </c>
@@ -2818,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.75">
+    <row r="53" spans="1:13" ht="18.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2831,7 +4015,10 @@
       <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="H53" s="12">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="11">
         <f>AVERAGE(H2:H52)</f>
         <v>58.771241830065364</v>
       </c>
@@ -2841,15 +4028,19 @@
         <v>72.549019607843135</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:L53" si="1">AVERAGE(K2:K52)</f>
+        <f>AVERAGE(K2:K52)</f>
         <v>63.725490196078432</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L2:L52)</f>
         <v>43.137254901960787</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="18.75">
+      <c r="M53">
+        <f>(J53+K53+L53)/3</f>
+        <v>59.803921568627459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2864,8 +4055,17 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" ht="18.75">
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K54" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2878,48 +4078,80 @@
       <c r="D55" s="3">
         <v>50</v>
       </c>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="19.5">
-      <c r="A56" s="10" t="s">
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="I55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="12">
+        <v>43.137254901960787</v>
+      </c>
+      <c r="K55" s="12">
+        <v>63.725490196078432</v>
+      </c>
+      <c r="L55" s="12">
+        <v>72.549019607843135</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="19.5">
+      <c r="A56" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="9">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15">
         <f>AVERAGE(D2:D55)</f>
         <v>52.777777777777779</v>
       </c>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="I56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="12">
+        <v>33</v>
+      </c>
+      <c r="K56" s="12">
+        <v>50</v>
+      </c>
+      <c r="L56" s="12">
+        <v>64</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75">
+    <row r="58" spans="1:13" ht="18.75">
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75">
+    <row r="62" spans="1:13" ht="18.75">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="18.75">
+    <row r="63" spans="1:13" ht="18.75">
       <c r="H63" s="8"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="18.75">
+    <row r="64" spans="1:13" ht="18.75">
       <c r="H64" s="8"/>
       <c r="I64" s="4"/>
     </row>
@@ -2938,8 +4170,8 @@
       <c r="H67" s="8"/>
     </row>
     <row r="85" spans="1:2" ht="18.75">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
@@ -2948,5 +4180,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/甲乙班(Exp)後測成績2.xlsx
+++ b/甲乙班(Exp)後測成績2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54163002-28BB-40C3-857B-F15ECBBC8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13614F3C-14B5-4353-9222-02B99A5C61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
   <si>
     <t>劉廣隃</t>
   </si>
@@ -458,14 +458,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>commit &amp; push</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>conflict solve</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -478,7 +470,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>commit and push</t>
+    <t>clone, commit and push</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>new branch and commit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +484,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0\%"/>
+    <numFmt numFmtId="177" formatCode="0\%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -592,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,13 +611,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -819,10 +821,10 @@
                   <c:v>conflict solve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>branch</c:v>
+                  <c:v>new branch and commit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>commit and push</c:v>
+                  <c:v>clone, commit and push</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -985,10 +987,10 @@
                   <c:v>conflict solve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>branch</c:v>
+                  <c:v>new branch and commit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>commit and push</c:v>
+                  <c:v>clone, commit and push</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,10 +1776,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2070,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2083,9 +2085,9 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5">
@@ -2106,14 +2108,14 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
-      <c r="J1" t="s">
+      <c r="J1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75">
@@ -2139,17 +2141,17 @@
         <v>100</v>
       </c>
       <c r="H2" s="10">
-        <f>(D2*2+G2)/3</f>
+        <f t="shared" ref="H2:H33" si="0">(D2*2+G2)/3</f>
         <v>100</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
+      <c r="J2" s="17">
+        <v>100</v>
+      </c>
+      <c r="K2" s="17">
+        <v>100</v>
+      </c>
+      <c r="L2" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2176,17 +2178,17 @@
         <v>25</v>
       </c>
       <c r="H3" s="16">
-        <f>(D3*2+G3)/3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="17">
+        <v>100</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2213,17 +2215,17 @@
         <v>50</v>
       </c>
       <c r="H4" s="10">
-        <f>(D4*2+G4)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="17">
+        <v>100</v>
+      </c>
+      <c r="K4" s="17">
+        <v>100</v>
+      </c>
+      <c r="L4" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2250,17 +2252,17 @@
         <v>100</v>
       </c>
       <c r="H5" s="10">
-        <f>(D5*2+G5)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="17">
+        <v>100</v>
+      </c>
+      <c r="K5" s="17">
+        <v>100</v>
+      </c>
+      <c r="L5" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2287,17 +2289,17 @@
         <v>100</v>
       </c>
       <c r="H6" s="10">
-        <f>(D6*2+G6)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
+      <c r="J6" s="17">
+        <v>100</v>
+      </c>
+      <c r="K6" s="17">
+        <v>100</v>
+      </c>
+      <c r="L6" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2324,16 +2326,16 @@
         <v>100</v>
       </c>
       <c r="H7" s="10">
-        <f>(D7*2+G7)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="17">
+        <v>100</v>
+      </c>
+      <c r="K7" s="17">
+        <v>100</v>
+      </c>
+      <c r="L7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2360,17 +2362,17 @@
         <v>100</v>
       </c>
       <c r="H8" s="10">
-        <f>(D8*2+G8)/3</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8">
+      <c r="J8" s="17">
+        <v>100</v>
+      </c>
+      <c r="K8" s="17">
+        <v>100</v>
+      </c>
+      <c r="L8" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2397,17 +2399,17 @@
         <v>100</v>
       </c>
       <c r="H9" s="10">
-        <f>(D9*2+G9)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
+      <c r="J9" s="17">
+        <v>100</v>
+      </c>
+      <c r="K9" s="17">
+        <v>100</v>
+      </c>
+      <c r="L9" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2434,17 +2436,17 @@
         <v>100</v>
       </c>
       <c r="H10" s="10">
-        <f>(D10*2+G10)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
+      <c r="J10" s="17">
+        <v>100</v>
+      </c>
+      <c r="K10" s="17">
+        <v>100</v>
+      </c>
+      <c r="L10" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2471,17 +2473,17 @@
         <v>100</v>
       </c>
       <c r="H11" s="10">
-        <f>(D11*2+G11)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
+      <c r="J11" s="17">
+        <v>100</v>
+      </c>
+      <c r="K11" s="17">
+        <v>100</v>
+      </c>
+      <c r="L11" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2508,17 +2510,17 @@
         <v>100</v>
       </c>
       <c r="H12" s="10">
-        <f>(D12*2+G12)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="L12">
+      <c r="J12" s="17">
+        <v>100</v>
+      </c>
+      <c r="K12" s="17">
+        <v>100</v>
+      </c>
+      <c r="L12" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2545,17 +2547,17 @@
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <f>(D13*2+G13)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2582,17 +2584,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f>(D14*2+G14)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="17">
+        <v>100</v>
+      </c>
+      <c r="K14" s="17">
+        <v>100</v>
+      </c>
+      <c r="L14" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2619,17 +2621,17 @@
         <v>100</v>
       </c>
       <c r="H15" s="10">
-        <f>(D15*2+G15)/3</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="17">
+        <v>100</v>
+      </c>
+      <c r="K15" s="17">
+        <v>100</v>
+      </c>
+      <c r="L15" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2656,17 +2658,17 @@
         <v>100</v>
       </c>
       <c r="H16" s="10">
-        <f>(D16*2+G16)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="17">
+        <v>100</v>
+      </c>
+      <c r="K16" s="17">
+        <v>100</v>
+      </c>
+      <c r="L16" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2693,17 +2695,17 @@
         <v>100</v>
       </c>
       <c r="H17" s="10">
-        <f>(D17*2+G17)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
+      <c r="J17" s="17">
+        <v>100</v>
+      </c>
+      <c r="K17" s="17">
+        <v>100</v>
+      </c>
+      <c r="L17" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2730,17 +2732,17 @@
         <v>100</v>
       </c>
       <c r="H18" s="10">
-        <f>(D18*2+G18)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
+      <c r="J18" s="17">
+        <v>100</v>
+      </c>
+      <c r="K18" s="17">
+        <v>100</v>
+      </c>
+      <c r="L18" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2767,17 +2769,17 @@
         <v>0</v>
       </c>
       <c r="H19" s="10">
-        <f>(D19*2+G19)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2804,17 +2806,17 @@
         <v>100</v>
       </c>
       <c r="H20" s="10">
-        <f>(D20*2+G20)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="17">
+        <v>100</v>
+      </c>
+      <c r="K20" s="17">
+        <v>100</v>
+      </c>
+      <c r="L20" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2841,17 +2843,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="10">
-        <f>(D21*2+G21)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2878,17 +2880,17 @@
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <f>(D22*2+G22)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2915,17 +2917,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="10">
-        <f>(D23*2+G23)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2952,17 +2954,17 @@
         <v>100</v>
       </c>
       <c r="H24" s="10">
-        <f>(D24*2+G24)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24">
-        <v>100</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
+      <c r="J24" s="17">
+        <v>100</v>
+      </c>
+      <c r="K24" s="17">
+        <v>100</v>
+      </c>
+      <c r="L24" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2989,17 +2991,17 @@
         <v>100</v>
       </c>
       <c r="H25" s="10">
-        <f>(D25*2+G25)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
+      <c r="J25" s="17">
+        <v>100</v>
+      </c>
+      <c r="K25" s="17">
+        <v>100</v>
+      </c>
+      <c r="L25" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3026,17 +3028,17 @@
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <f>(D26*2+G26)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3063,17 +3065,17 @@
         <v>100</v>
       </c>
       <c r="H27" s="10">
-        <f>(D27*2+G27)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="17">
+        <v>100</v>
+      </c>
+      <c r="K27" s="17">
+        <v>100</v>
+      </c>
+      <c r="L27" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3100,17 +3102,17 @@
         <v>100</v>
       </c>
       <c r="H28" s="10">
-        <f>(D28*2+G28)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
+      <c r="J28" s="17">
+        <v>100</v>
+      </c>
+      <c r="K28" s="17">
+        <v>100</v>
+      </c>
+      <c r="L28" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3137,17 +3139,17 @@
         <v>67</v>
       </c>
       <c r="H29" s="10">
-        <f>(D29*2+G29)/3</f>
+        <f t="shared" si="0"/>
         <v>55.666666666666664</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
+      <c r="J29" s="17">
+        <v>100</v>
+      </c>
+      <c r="K29" s="17">
+        <v>100</v>
+      </c>
+      <c r="L29" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3174,17 +3176,17 @@
         <v>100</v>
       </c>
       <c r="H30" s="10">
-        <f>(D30*2+G30)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
+      <c r="J30" s="17">
+        <v>100</v>
+      </c>
+      <c r="K30" s="17">
+        <v>100</v>
+      </c>
+      <c r="L30" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3211,17 +3213,17 @@
         <v>50</v>
       </c>
       <c r="H31" s="10">
-        <f>(D31*2+G31)/3</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="17">
+        <v>100</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3248,17 +3250,17 @@
         <v>50</v>
       </c>
       <c r="H32" s="10">
-        <f>(D32*2+G32)/3</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="J32" s="17">
+        <v>100</v>
+      </c>
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3285,17 +3287,17 @@
         <v>100</v>
       </c>
       <c r="H33" s="10">
-        <f>(D33*2+G33)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33">
-        <v>100</v>
-      </c>
-      <c r="K33">
-        <v>100</v>
-      </c>
-      <c r="L33">
+      <c r="J33" s="17">
+        <v>100</v>
+      </c>
+      <c r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3322,17 +3324,17 @@
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <f>(D34*2+G34)/3</f>
+        <f t="shared" ref="H34:H65" si="1">(D34*2+G34)/3</f>
         <v>0</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3359,17 +3361,17 @@
         <v>100</v>
       </c>
       <c r="H35" s="10">
-        <f>(D35*2+G35)/3</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="17">
+        <v>100</v>
+      </c>
+      <c r="K35" s="17">
         <v>50</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3396,17 +3398,17 @@
         <v>100</v>
       </c>
       <c r="H36" s="10">
-        <f>(D36*2+G36)/3</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36">
-        <v>100</v>
-      </c>
-      <c r="L36">
+      <c r="J36" s="17">
+        <v>100</v>
+      </c>
+      <c r="K36" s="17">
+        <v>100</v>
+      </c>
+      <c r="L36" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3433,17 +3435,17 @@
         <v>100</v>
       </c>
       <c r="H37" s="10">
-        <f>(D37*2+G37)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37">
-        <v>100</v>
-      </c>
-      <c r="K37">
-        <v>100</v>
-      </c>
-      <c r="L37">
+      <c r="J37" s="17">
+        <v>100</v>
+      </c>
+      <c r="K37" s="17">
+        <v>100</v>
+      </c>
+      <c r="L37" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3470,17 +3472,17 @@
         <v>100</v>
       </c>
       <c r="H38" s="10">
-        <f>(D38*2+G38)/3</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3507,17 +3509,17 @@
         <v>50</v>
       </c>
       <c r="H39" s="10">
-        <f>(D39*2+G39)/3</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="J39" s="17">
+        <v>100</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3544,17 +3546,17 @@
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <f>(D40*2+G40)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3581,17 +3583,17 @@
         <v>100</v>
       </c>
       <c r="H41" s="10">
-        <f>(D41*2+G41)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41">
-        <v>100</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41">
+      <c r="J41" s="17">
+        <v>100</v>
+      </c>
+      <c r="K41" s="17">
+        <v>100</v>
+      </c>
+      <c r="L41" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3618,17 +3620,17 @@
         <v>100</v>
       </c>
       <c r="H42" s="10">
-        <f>(D42*2+G42)/3</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42">
-        <v>100</v>
-      </c>
-      <c r="K42">
-        <v>100</v>
-      </c>
-      <c r="L42">
+      <c r="J42" s="17">
+        <v>100</v>
+      </c>
+      <c r="K42" s="17">
+        <v>100</v>
+      </c>
+      <c r="L42" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3655,17 +3657,17 @@
         <v>100</v>
       </c>
       <c r="H43" s="10">
-        <f>(D43*2+G43)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-      <c r="L43">
+      <c r="J43" s="17">
+        <v>100</v>
+      </c>
+      <c r="K43" s="17">
+        <v>100</v>
+      </c>
+      <c r="L43" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3692,17 +3694,17 @@
         <v>100</v>
       </c>
       <c r="H44" s="10">
-        <f>(D44*2+G44)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>100</v>
-      </c>
-      <c r="L44">
+      <c r="J44" s="17">
+        <v>100</v>
+      </c>
+      <c r="K44" s="17">
+        <v>100</v>
+      </c>
+      <c r="L44" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3729,17 +3731,17 @@
         <v>0</v>
       </c>
       <c r="H45" s="10">
-        <f>(D45*2+G45)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3766,17 +3768,17 @@
         <v>100</v>
       </c>
       <c r="H46" s="10">
-        <f>(D46*2+G46)/3</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46">
+      <c r="J46" s="17">
+        <v>100</v>
+      </c>
+      <c r="K46" s="17">
+        <v>100</v>
+      </c>
+      <c r="L46" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3803,17 +3805,17 @@
         <v>0</v>
       </c>
       <c r="H47" s="10">
-        <f>(D47*2+G47)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3840,17 +3842,17 @@
         <v>100</v>
       </c>
       <c r="H48" s="10">
-        <f>(D48*2+G48)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-      <c r="L48">
+      <c r="J48" s="17">
+        <v>100</v>
+      </c>
+      <c r="K48" s="17">
+        <v>100</v>
+      </c>
+      <c r="L48" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3877,17 +3879,17 @@
         <v>100</v>
       </c>
       <c r="H49" s="10">
-        <f>(D49*2+G49)/3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>100</v>
-      </c>
-      <c r="L49">
+      <c r="J49" s="17">
+        <v>100</v>
+      </c>
+      <c r="K49" s="17">
+        <v>100</v>
+      </c>
+      <c r="L49" s="17">
         <v>100</v>
       </c>
     </row>
@@ -3914,17 +3916,17 @@
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <f>(D50*2+G50)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="J50" s="17">
+        <v>0</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0</v>
+      </c>
+      <c r="L50" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3951,17 +3953,17 @@
         <v>0</v>
       </c>
       <c r="H51" s="10">
-        <f>(D51*2+G51)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3988,17 +3990,17 @@
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <f>(D52*2+G52)/3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="J52" s="17">
+        <v>0</v>
+      </c>
+      <c r="K52" s="17">
+        <v>0</v>
+      </c>
+      <c r="L52" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4023,15 +4025,15 @@
         <v>58.771241830065364</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53">
+      <c r="J53" s="17">
         <f>AVERAGE(J2:J52)</f>
         <v>72.549019607843135</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="17">
         <f>AVERAGE(K2:K52)</f>
         <v>63.725490196078432</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="17">
         <f>AVERAGE(L2:L52)</f>
         <v>43.137254901960787</v>
       </c>
@@ -4055,14 +4057,14 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="4"/>
-      <c r="J54" t="s">
-        <v>115</v>
-      </c>
-      <c r="K54" t="s">
-        <v>114</v>
-      </c>
-      <c r="L54" t="s">
-        <v>118</v>
+      <c r="J54" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="18.75">
@@ -4082,15 +4084,15 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="I55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J55" s="12">
+        <v>115</v>
+      </c>
+      <c r="J55" s="18">
         <v>43.137254901960787</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="18">
         <v>63.725490196078432</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="18">
         <v>72.549019607843135</v>
       </c>
       <c r="M55" s="12"/>
@@ -4109,15 +4111,15 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="I56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J56" s="12">
+        <v>114</v>
+      </c>
+      <c r="J56" s="18">
         <v>33</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="18">
         <v>50</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="18">
         <v>64</v>
       </c>
       <c r="M56" s="12"/>

--- a/甲乙班(Exp)後測成績2.xlsx
+++ b/甲乙班(Exp)後測成績2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13614F3C-14B5-4353-9222-02B99A5C61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998258B-23C8-4E86-B77A-4F8D7E87701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
   <si>
     <t>劉廣隃</t>
   </si>
@@ -477,6 +477,12 @@
     <t>new branch and commit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>D0947762</t>
+  </si>
+  <si>
+    <t>D0915799</t>
+  </si>
 </sst>
 </file>
 
@@ -486,7 +492,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0\%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +546,26 @@
       <name val="新細明體"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -584,11 +603,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,10 +646,18 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{AE2B74C8-B719-4FA7-8BA8-901BB9EC8E6E}"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,13 +692,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -676,22 +720,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Post</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Post Test Passed</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> Test Passed</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Rate</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -707,13 +755,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2072,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2085,6 +2147,7 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
@@ -2125,7 +2188,7 @@
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -2310,7 +2373,7 @@
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3">
@@ -2383,7 +2446,7 @@
       <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3">
@@ -2457,7 +2520,7 @@
       <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3">
@@ -2494,7 +2557,7 @@
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
@@ -2531,7 +2594,7 @@
       <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3">
@@ -2568,7 +2631,7 @@
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3">
@@ -2605,7 +2668,7 @@
       <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3">
@@ -2642,7 +2705,7 @@
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3">
@@ -2679,7 +2742,7 @@
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3">
@@ -2716,7 +2779,7 @@
       <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="3">
@@ -2790,7 +2853,7 @@
       <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="3">
@@ -2827,7 +2890,7 @@
       <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3">
@@ -2901,7 +2964,7 @@
       <c r="B23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3">
@@ -3012,7 +3075,7 @@
       <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3">
@@ -3049,7 +3112,7 @@
       <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="3">
@@ -3123,7 +3186,7 @@
       <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3">
@@ -3234,7 +3297,7 @@
       <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="3">
@@ -3271,7 +3334,7 @@
       <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="3">
@@ -3324,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" ref="H34:H65" si="1">(D34*2+G34)/3</f>
+        <f t="shared" ref="H34:H52" si="1">(D34*2+G34)/3</f>
         <v>0</v>
       </c>
       <c r="I34" s="4"/>
@@ -3419,7 +3482,7 @@
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="3">
@@ -3456,7 +3519,7 @@
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="3">
@@ -3493,7 +3556,7 @@
       <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3">
@@ -3567,7 +3630,7 @@
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="3">
@@ -3604,7 +3667,7 @@
       <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="3">
@@ -3641,7 +3704,7 @@
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="3">
@@ -3789,7 +3852,7 @@
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="3">
@@ -3826,7 +3889,7 @@
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="3">
@@ -3863,7 +3926,7 @@
       <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="3">
@@ -3937,7 +4000,7 @@
       <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D51" s="3">
@@ -4049,7 +4112,7 @@
       <c r="B54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="3">
@@ -4125,9 +4188,19 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13">
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:13" ht="18.75">
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20">
+        <v>100</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>

--- a/甲乙班(Exp)後測成績2.xlsx
+++ b/甲乙班(Exp)後測成績2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998258B-23C8-4E86-B77A-4F8D7E87701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC647D81-4C6A-419E-BE98-0FF6A7EBBE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
               <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Post Test Passed</a:t>
+              <a:t>Post Test Passing</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
@@ -1840,8 +1840,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
